--- a/Tests/Matrix_multiplication/Data&graphs/normal_vs_parallel&vectorized.xlsx
+++ b/Tests/Matrix_multiplication/Data&graphs/normal_vs_parallel&vectorized.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vukasin\Desktop\py_N_N's\C#_nn's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vukasin\Desktop\py_N_N's\C#_nn's\Neural_network\Tests\Matrix_multiplication\Data&amp;graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D95050C-2B56-47DC-B67D-FFB2686C55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{548179D3-5961-436F-BFE3-CFABED02D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal_vs_vectorized" sheetId="1" r:id="rId1"/>
@@ -1212,6 +1212,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matrix multiplication normal vs vectorized parallel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3449,6 +3474,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3514,6 +3594,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6135,10 +6270,10 @@
       <xdr:rowOff>6</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>234949</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6510,7 +6645,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10550,8 +10685,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1CA7EE-CD0C-4EA7-87E3-3CB90066157E}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D136"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
